--- a/data/trans_orig/P14C26-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C26-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08857BE8-E529-464D-9741-4A1A4B963495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79786D91-C326-47E1-9824-946F63AEC8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C42A7094-99CE-4023-B408-842CDE0AE1F0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE5DBC21-774D-419C-98DA-8EB5BEB1D690}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="124">
   <si>
     <t>Población según el tiempo de diagnóstico del hipoacusia en 2015 (Tasa respuesta: 1,61%)</t>
   </si>
@@ -122,7 +122,7 @@
     <t>86,21%</t>
   </si>
   <si>
-    <t>55,55%</t>
+    <t>57,46%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -140,7 +140,7 @@
     <t>13,79%</t>
   </si>
   <si>
-    <t>44,45%</t>
+    <t>42,54%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -149,55 +149,55 @@
     <t>54,14%</t>
   </si>
   <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
   </si>
   <si>
     <t>67,11%</t>
   </si>
   <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>62,8%</t>
   </si>
   <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>37,11%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
   </si>
   <si>
     <t>8,75%</t>
@@ -209,13 +209,13 @@
     <t>4,88%</t>
   </si>
   <si>
-    <t>21,15%</t>
+    <t>21,8%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>21,33%</t>
+    <t>21,09%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -224,25 +224,25 @@
     <t>83,37%</t>
   </si>
   <si>
-    <t>56,4%</t>
+    <t>50,62%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>67,19%</t>
+    <t>62,16%</t>
   </si>
   <si>
     <t>16,63%</t>
   </si>
   <si>
-    <t>43,6%</t>
+    <t>49,38%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>32,81%</t>
+    <t>37,84%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -257,157 +257,154 @@
     <t>51,71%</t>
   </si>
   <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>66,95%</t>
   </si>
   <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>59,86%</t>
   </si>
   <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
   </si>
   <si>
     <t>37,82%</t>
   </si>
   <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
   </si>
   <si>
     <t>22,18%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
   </si>
   <si>
     <t>29,46%</t>
   </si>
   <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>33,15%</t>
+    <t>32,74%</t>
   </si>
   <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>31,98%</t>
+    <t>32,22%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
   </si>
   <si>
     <t>70,44%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
   </si>
   <si>
     <t>71,16%</t>
   </si>
   <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
+    <t>62,12%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
   </si>
   <si>
     <t>19,84%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -822,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C14D97F-AC71-466F-AF30-431C961B5747}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FFBFAF-F1C8-4002-9DAE-AB8E147AD319}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2012,7 +2009,7 @@
         <v>104</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,13 +2024,13 @@
         <v>10809</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -2042,13 +2039,13 @@
         <v>12818</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -2057,13 +2054,13 @@
         <v>23627</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,13 +2075,13 @@
         <v>2828</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2093,13 +2090,13 @@
         <v>5480</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -2108,13 +2105,13 @@
         <v>8307</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,7 +2167,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C26-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C26-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79786D91-C326-47E1-9824-946F63AEC8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA1B105F-348F-494C-B98C-2DA226507822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE5DBC21-774D-419C-98DA-8EB5BEB1D690}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF89D197-55F3-4C7E-B24F-0CCE832C611D}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="124">
   <si>
-    <t>Población según el tiempo de diagnóstico del hipoacusia en 2015 (Tasa respuesta: 1,61%)</t>
+    <t>Población según el tiempo de diagnóstico del hipoacusia en 2016 (Tasa respuesta: 1,61%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -107,7 +107,7 @@
     <t>Ultimos 12 meses</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -116,13 +116,13 @@
     <t>73,72%</t>
   </si>
   <si>
-    <t>34,02%</t>
+    <t>35,83%</t>
   </si>
   <si>
     <t>86,21%</t>
   </si>
   <si>
-    <t>57,46%</t>
+    <t>53,14%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -134,115 +134,115 @@
     <t>26,28%</t>
   </si>
   <si>
-    <t>65,98%</t>
+    <t>64,17%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>54,14%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
   </si>
   <si>
     <t>67,11%</t>
   </si>
   <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
   <si>
     <t>62,8%</t>
   </si>
   <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
   </si>
   <si>
     <t>37,11%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>38,71%</t>
+    <t>44,61%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>21,8%</t>
+    <t>20,72%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>83,37%</t>
   </si>
   <si>
-    <t>50,62%</t>
+    <t>56,53%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>62,16%</t>
+    <t>67,23%</t>
   </si>
   <si>
     <t>16,63%</t>
   </si>
   <si>
-    <t>49,38%</t>
+    <t>43,47%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>37,84%</t>
+    <t>32,77%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -257,145 +257,145 @@
     <t>51,71%</t>
   </si>
   <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
   </si>
   <si>
     <t>66,95%</t>
   </si>
   <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
   </si>
   <si>
     <t>59,86%</t>
   </si>
   <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
   </si>
   <si>
     <t>37,82%</t>
   </si>
   <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
   </si>
   <si>
     <t>22,18%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
   </si>
   <si>
     <t>29,46%</t>
   </si>
   <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>32,74%</t>
+    <t>34,13%</t>
   </si>
   <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>32,22%</t>
+    <t>33,9%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
   </si>
   <si>
     <t>70,44%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
   </si>
   <si>
     <t>71,16%</t>
   </si>
   <si>
-    <t>62,12%</t>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
   </si>
   <si>
     <t>19,84%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
+    <t>30,08%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
   </si>
   <si>
     <t>7,5%</t>
@@ -404,7 +404,7 @@
     <t>3,68%</t>
   </si>
   <si>
-    <t>14,03%</t>
+    <t>14,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FFBFAF-F1C8-4002-9DAE-AB8E147AD319}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD923ED-D3CF-4DEB-B1BF-82617171922B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2009,7 +2009,7 @@
         <v>104</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,13 +2024,13 @@
         <v>10809</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -2039,13 +2039,13 @@
         <v>12818</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -2054,10 +2054,10 @@
         <v>23627</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>113</v>
